--- a/Tests/OneToOneTest/Out/Results.xlsx
+++ b/Tests/OneToOneTest/Out/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltai Kadosa\eclipse-workspace\arrowhead-tools\Tests\OneToOneTest\Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922A4FDE-A834-4644-8784-1AC496CEA92B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D826EF-7067-4356-825C-0BC7D353063A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,6 +151,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -542,7 +567,7 @@
       <c:valAx>
         <c:axId val="486455664"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
         </c:scaling>
@@ -695,6 +720,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Roun-Trip-Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -727,9 +777,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -746,15 +795,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$K$12:$K$16</c:f>
@@ -803,6 +866,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CBCC-4F81-B9C8-7D2B396613A7}"/>
@@ -824,15 +888,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$K$12:$K$16</c:f>
@@ -881,6 +959,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CBCC-4F81-B9C8-7D2B396613A7}"/>
@@ -902,15 +981,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$K$12:$K$16</c:f>
@@ -959,6 +1052,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CBCC-4F81-B9C8-7D2B396613A7}"/>
@@ -973,10 +1067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="636135040"/>
         <c:axId val="2123937568"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="636135040"/>
         <c:scaling>
@@ -1031,7 +1126,7 @@
       <c:valAx>
         <c:axId val="2123937568"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2258,16 +2353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2294,16 +2389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>766762</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2669,7 +2764,7 @@
   <dimension ref="A1:N649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/OneToOneTest/Out/Results.xlsx
+++ b/Tests/OneToOneTest/Out/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltai Kadosa\eclipse-workspace\arrowhead-tools\Tests\OneToOneTest\Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D826EF-7067-4356-825C-0BC7D353063A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12EC1F-106D-4FAB-81D1-D294FCB80451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,6 +520,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sent file in bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -569,7 +624,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="1024"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -587,6 +642,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bytes/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1079,6 +1189,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sent file in bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1145,6 +1310,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2361,7 +2581,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2390,15 +2610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:colOff>185737</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2764,7 +2984,7 @@
   <dimension ref="A1:N649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/OneToOneTest/Out/Results.xlsx
+++ b/Tests/OneToOneTest/Out/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltai Kadosa\eclipse-workspace\arrowhead-tools\Tests\OneToOneTest\Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D7BC0-440B-461D-9CBA-D85584CD9A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876286B6-288B-41C1-898F-D61DF8E8DCA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,9 +630,9 @@
       <c:valAx>
         <c:axId val="486455664"/>
         <c:scaling>
-          <c:logBase val="2"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1024"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:O901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/OneToOneTest/Out/Results.xlsx
+++ b/Tests/OneToOneTest/Out/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltai Kadosa\eclipse-workspace\arrowhead-tools\Tests\OneToOneTest\Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876286B6-288B-41C1-898F-D61DF8E8DCA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D2445-C978-48A5-BA79-EB483D65B2A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,7 +858,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Roun-Trip-Time</a:t>
+              <a:t>Round-Trip</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2581,16 +2589,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2617,15 +2625,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2992,7 +3000,7 @@
   <dimension ref="A1:O901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests/OneToOneTest/Out/Results.xlsx
+++ b/Tests/OneToOneTest/Out/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koltai Kadosa\eclipse-workspace\arrowhead-tools\Tests\OneToOneTest\Out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67909EE-3945-4CDA-855D-12FE15914F6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344E01A-8B40-4DE5-9466-4842EBFEAF0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>Column1</t>
   </si>
@@ -77,16 +77,43 @@
     <t>Arrowhead</t>
   </si>
   <si>
-    <t>DDS</t>
-  </si>
-  <si>
-    <t>MQTT</t>
-  </si>
-  <si>
     <t>RTI DDS Connext</t>
   </si>
   <si>
     <t>Paho + Mosquitto</t>
+  </si>
+  <si>
+    <t>1 MB</t>
+  </si>
+  <si>
+    <t>0.1 KB</t>
+  </si>
+  <si>
+    <t>1 KB</t>
+  </si>
+  <si>
+    <t>10 KB</t>
+  </si>
+  <si>
+    <t>100 MB</t>
+  </si>
+  <si>
+    <t>65 KB</t>
+  </si>
+  <si>
+    <t>66 KB</t>
+  </si>
+  <si>
+    <t>67 KB</t>
+  </si>
+  <si>
+    <t>68 KB</t>
+  </si>
+  <si>
+    <t>64 KB</t>
+  </si>
+  <si>
+    <t>103 KB</t>
   </si>
 </sst>
 </file>
@@ -238,10 +265,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13155199236459081"/>
-          <c:y val="9.7927392739273922E-2"/>
+          <c:x val="0.13155192025954596"/>
+          <c:y val="0.12444259259204027"/>
           <c:w val="0.83991371987592456"/>
-          <c:h val="0.78042670408773163"/>
+          <c:h val="0.63648730508449802"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -286,28 +313,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -349,7 +375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDS</c:v>
+                  <c:v>RTI DDS Connext</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,28 +405,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -442,7 +467,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MQTT</c:v>
+                  <c:v>Paho + Mosquitto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -472,28 +497,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -567,11 +591,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sent file in bytes</a:t>
+                  <a:t>Size</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of File Sent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40169979595720856"/>
+              <c:y val="0.82986275049592884"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -889,6 +926,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38770737564194807"/>
+          <c:y val="2.0356234096692113E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -963,28 +1008,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$12:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$12:$K$16</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1026,7 +1070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DDS</c:v>
+                  <c:v>RTI DDS Connext</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1056,28 +1100,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$12:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$12:$K$16</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1119,7 +1162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MQTT</c:v>
+                  <c:v>Paho + Mosquitto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1149,28 +1192,27 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$L$12:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$K$12:$K$16</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1018</c:v>
+                  <c:v>1 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>1 MB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101128023</c:v>
+                  <c:v>100 MB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1244,11 +1286,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sent file in bytes</a:t>
+                  <a:t>Size</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of File Sent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44968116773038591"/>
+              <c:y val="0.81249217862574841"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1532,6 +1587,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1563,7 +1643,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12210371415346263"/>
+          <c:y val="0.1304471127177797"/>
+          <c:w val="0.85063481416370057"/>
+          <c:h val="0.63671383499333112"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1606,34 +1696,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$11:$S$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$11:$R$17</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1711,34 +1800,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$11:$S$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$11:$R$17</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1816,34 +1904,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$11:$S$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$11:$R$17</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1902,6 +1989,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of File Sent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44760736320827343"/>
+              <c:y val="0.83707258271794938"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1967,6 +2122,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>byte/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2100,6 +2310,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Round-Trip Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2131,7 +2366,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10039229384681814"/>
+          <c:y val="0.11453618756371052"/>
+          <c:w val="0.87249741656599766"/>
+          <c:h val="0.6437576954256865"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2174,34 +2419,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$25:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$25:$R$31</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2279,34 +2523,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$25:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$25:$R$31</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2384,34 +2627,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$S$25:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet2!$R$25:$R$31</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10200</c:v>
+                  <c:v>10 KB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65166</c:v>
+                  <c:v>64 KB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66309</c:v>
+                  <c:v>65 KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67055</c:v>
+                  <c:v>66 KB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68144</c:v>
+                  <c:v>67 KB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69250</c:v>
+                  <c:v>68 KB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104471</c:v>
+                  <c:v>103 KB</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2470,6 +2712,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of File Sent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2535,6 +2837,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.9291435613062233E-3"/>
+              <c:y val="0.41009479319672199"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4831,14 +5196,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4865,16 +5230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4906,16 +5271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4942,16 +5307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5389,7 +5754,7 @@
   <dimension ref="A1:O901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,6 +5889,9 @@
       <c r="I4">
         <v>159375</v>
       </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
       <c r="L4">
         <v>100</v>
       </c>
@@ -5568,6 +5936,9 @@
       <c r="I5">
         <v>147826</v>
       </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
       <c r="L5">
         <v>1018</v>
       </c>
@@ -5612,6 +5983,9 @@
       <c r="I6">
         <v>154545</v>
       </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
       <c r="L6">
         <v>10200</v>
       </c>
@@ -5656,6 +6030,9 @@
       <c r="I7">
         <v>130769</v>
       </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
       <c r="L7" s="1">
         <v>1000000</v>
       </c>
@@ -5700,6 +6077,9 @@
       <c r="I8">
         <v>156923</v>
       </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="2">
         <v>101128023</v>
       </c>
@@ -5840,6 +6220,9 @@
       <c r="I12">
         <v>152238</v>
       </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
       <c r="L12">
         <v>100</v>
       </c>
@@ -5884,6 +6267,9 @@
       <c r="I13">
         <v>164516</v>
       </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
       <c r="L13">
         <v>1018</v>
       </c>
@@ -5928,6 +6314,9 @@
       <c r="I14">
         <v>1612</v>
       </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
       <c r="L14">
         <v>10200</v>
       </c>
@@ -5972,6 +6361,9 @@
       <c r="I15">
         <v>1587</v>
       </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
       <c r="L15" s="1">
         <v>1000000</v>
       </c>
@@ -6015,6 +6407,9 @@
       </c>
       <c r="I16">
         <v>1666</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
       </c>
       <c r="L16" s="2">
         <v>101128023</v>
@@ -28257,7 +28652,7 @@
   <dimension ref="A1:V985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28558,10 +28953,10 @@
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -28592,6 +28987,9 @@
       <c r="I11">
         <v>115542</v>
       </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
       <c r="S11" s="1">
         <v>10200</v>
       </c>
@@ -28636,6 +29034,9 @@
       <c r="I12">
         <v>241355</v>
       </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
       <c r="S12" s="1">
         <v>65166</v>
       </c>
@@ -28680,6 +29081,9 @@
       <c r="I13">
         <v>117205</v>
       </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
       <c r="S13" s="1">
         <v>66309</v>
       </c>
@@ -28724,6 +29128,9 @@
       <c r="I14">
         <v>217084</v>
       </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
       <c r="S14" s="1">
         <v>67055</v>
       </c>
@@ -28768,6 +29175,9 @@
       <c r="I15">
         <v>206716</v>
       </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
       <c r="S15" s="2">
         <v>68144</v>
       </c>
@@ -28812,6 +29222,9 @@
       <c r="I16">
         <v>222668</v>
       </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
       <c r="S16" s="1">
         <v>69250</v>
       </c>
@@ -28856,6 +29269,9 @@
       <c r="I17">
         <v>200724</v>
       </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
       <c r="S17" s="2">
         <v>104471</v>
       </c>
@@ -29078,10 +29494,10 @@
         <v>3</v>
       </c>
       <c r="U24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -29112,6 +29528,9 @@
       <c r="I25">
         <v>223387</v>
       </c>
+      <c r="R25" t="s">
+        <v>9</v>
+      </c>
       <c r="S25" s="1">
         <v>10200</v>
       </c>
@@ -29156,6 +29575,9 @@
       <c r="I26">
         <v>209838</v>
       </c>
+      <c r="R26" t="s">
+        <v>15</v>
+      </c>
       <c r="S26" s="1">
         <v>65166</v>
       </c>
@@ -29200,6 +29622,9 @@
       <c r="I27">
         <v>108881</v>
       </c>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
       <c r="S27" s="1">
         <v>66309</v>
       </c>
@@ -29244,6 +29669,9 @@
       <c r="I28">
         <v>124640</v>
       </c>
+      <c r="R28" t="s">
+        <v>12</v>
+      </c>
       <c r="S28" s="1">
         <v>67055</v>
       </c>
@@ -29288,6 +29716,9 @@
       <c r="I29">
         <v>204657</v>
       </c>
+      <c r="R29" t="s">
+        <v>13</v>
+      </c>
       <c r="S29" s="2">
         <v>68144</v>
       </c>
@@ -29332,6 +29763,9 @@
       <c r="I30">
         <v>197348</v>
       </c>
+      <c r="R30" t="s">
+        <v>14</v>
+      </c>
       <c r="S30" s="1">
         <v>69250</v>
       </c>
@@ -29375,6 +29809,9 @@
       </c>
       <c r="I31">
         <v>233482</v>
+      </c>
+      <c r="R31" t="s">
+        <v>16</v>
       </c>
       <c r="S31" s="2">
         <v>104471</v>
